--- a/docs/resources/TargetDictionary_testCDM.xlsx
+++ b/docs/resources/TargetDictionary_testCDM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Desktop\encepp-model-changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D4838-3AEA-45E0-BF0F-580DFEB0EC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8FD3A7-4AF7-4F62-82D2-4F2415B01AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,13 @@
     <sheet name="Variables" sheetId="9" r:id="rId2"/>
     <sheet name="Repeated variables" sheetId="10" r:id="rId3"/>
     <sheet name="Variable values" sheetId="11" r:id="rId4"/>
-    <sheet name="Collection events" sheetId="12" r:id="rId5"/>
-    <sheet name="Subcohorts" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="322">
   <si>
     <t>name</t>
   </si>
@@ -39,27 +37,9 @@
     <t>description</t>
   </si>
   <si>
-    <t>sub1</t>
-  </si>
-  <si>
-    <t>sub2</t>
-  </si>
-  <si>
-    <t>subcohorts</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>sub1,sub2</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -1009,15 +989,6 @@
   </si>
   <si>
     <t>weight_who_ga</t>
-  </si>
-  <si>
-    <t>age groups</t>
-  </si>
-  <si>
-    <t>Prenatal,Infant (0-23 months)</t>
-  </si>
-  <si>
-    <t>Prenatal,Infant (0-23 months),Child (2-12 years)</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1364,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1415,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1435,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1480,58 +1451,58 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -1539,25 +1510,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R2" t="s">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -1565,25 +1536,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -1591,25 +1562,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -1617,25 +1588,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -1643,25 +1614,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
@@ -1669,25 +1640,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
@@ -1695,25 +1666,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
@@ -1721,25 +1692,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -1747,25 +1718,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
@@ -1773,25 +1744,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
@@ -1799,25 +1770,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s">
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
@@ -1825,25 +1796,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R13" t="s">
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
@@ -1851,25 +1822,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R14" t="s">
         <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
@@ -1877,28 +1848,28 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
@@ -1906,25 +1877,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R16" t="s">
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
@@ -1932,25 +1903,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="R17" t="s">
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
@@ -1958,25 +1929,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="R18" t="s">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
@@ -1984,25 +1955,25 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R19" t="s">
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
@@ -2010,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
@@ -2039,25 +2010,25 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R21" t="s">
         <v>1</v>
       </c>
       <c r="S21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
@@ -2065,28 +2036,28 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s">
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
@@ -2094,28 +2065,28 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s">
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
@@ -2123,28 +2094,28 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R24" t="s">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
@@ -2152,28 +2123,28 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="R25" t="s">
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
@@ -2181,28 +2152,28 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="R26" t="s">
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
@@ -2210,28 +2181,28 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R27" t="s">
         <v>1</v>
       </c>
       <c r="S27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
@@ -2239,28 +2210,28 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="R28" t="s">
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
@@ -2268,28 +2239,28 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="R29" t="s">
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
@@ -2297,28 +2268,28 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R30" t="s">
         <v>1</v>
       </c>
       <c r="S30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
@@ -2326,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="R31" t="s">
         <v>1</v>
       </c>
       <c r="S31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
@@ -2355,28 +2326,28 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="R32" t="s">
         <v>1</v>
       </c>
       <c r="S32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
@@ -2384,28 +2355,28 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R33" t="s">
         <v>1</v>
       </c>
       <c r="S33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
@@ -2413,28 +2384,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R34" t="s">
         <v>1</v>
       </c>
       <c r="S34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
@@ -2442,28 +2413,28 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="R35" t="s">
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
@@ -2471,28 +2442,28 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="R36" t="s">
         <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
@@ -2500,28 +2471,28 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R37" t="s">
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
@@ -2529,28 +2500,28 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="R38" t="s">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
@@ -2558,28 +2529,28 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R39" t="s">
         <v>1</v>
       </c>
       <c r="S39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
@@ -2587,25 +2558,25 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="R40" t="s">
         <v>1</v>
       </c>
       <c r="S40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
@@ -2613,25 +2584,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="R41" t="s">
         <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
@@ -2639,25 +2610,25 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R42" t="s">
         <v>1</v>
       </c>
       <c r="S42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
@@ -2665,28 +2636,28 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="R43" t="s">
         <v>1</v>
       </c>
       <c r="S43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
@@ -2694,25 +2665,25 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R44" t="s">
         <v>1</v>
       </c>
       <c r="S44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
@@ -2720,25 +2691,25 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R45" t="s">
         <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
@@ -2746,25 +2717,25 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="R46" t="s">
         <v>1</v>
       </c>
       <c r="S46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
@@ -2772,25 +2743,25 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="R47" t="s">
         <v>1</v>
       </c>
       <c r="S47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
@@ -2798,25 +2769,25 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="R48" t="s">
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
@@ -2824,25 +2795,25 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="R49" t="s">
         <v>1</v>
       </c>
       <c r="S49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
@@ -2850,25 +2821,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R50" t="s">
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
@@ -2876,28 +2847,28 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R51" t="s">
         <v>1</v>
       </c>
       <c r="S51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
@@ -2905,25 +2876,25 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R52" t="s">
         <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
@@ -2931,25 +2902,25 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="R53" t="s">
         <v>1</v>
       </c>
       <c r="S53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
@@ -2957,25 +2928,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="R54" t="s">
         <v>1</v>
       </c>
       <c r="S54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
@@ -2983,25 +2954,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="R55" t="s">
         <v>1</v>
       </c>
       <c r="S55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
@@ -3009,25 +2980,25 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="R56" t="s">
         <v>1</v>
       </c>
       <c r="S56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
@@ -3035,25 +3006,25 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R57" t="s">
         <v>1</v>
       </c>
       <c r="S57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
@@ -3061,25 +3032,25 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D58" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="R58" t="s">
         <v>1</v>
       </c>
       <c r="S58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
@@ -3087,25 +3058,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="R59" t="s">
         <v>1</v>
       </c>
       <c r="S59" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
@@ -3113,25 +3084,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="R60" t="s">
         <v>1</v>
       </c>
       <c r="S60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
@@ -3139,25 +3110,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I61" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R61" t="s">
         <v>1</v>
       </c>
       <c r="S61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
@@ -3165,28 +3136,28 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I62" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="R62" t="s">
         <v>1</v>
       </c>
       <c r="S62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
@@ -3194,25 +3165,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="R63" t="s">
         <v>1</v>
       </c>
       <c r="S63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
@@ -3220,28 +3191,28 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F64" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I64" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="R64" t="s">
         <v>1</v>
       </c>
       <c r="S64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
@@ -3249,25 +3220,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="R65" t="s">
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
@@ -3275,25 +3246,25 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R66" t="s">
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
@@ -3301,25 +3272,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="R67" t="s">
         <v>1</v>
       </c>
       <c r="S67" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
@@ -3327,25 +3298,25 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="R68" t="s">
         <v>1</v>
       </c>
       <c r="S68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.45">
@@ -3353,25 +3324,25 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R69" t="s">
         <v>1</v>
       </c>
       <c r="S69" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.45">
@@ -3379,25 +3350,25 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R70" t="s">
         <v>1</v>
       </c>
       <c r="S70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.45">
@@ -3405,28 +3376,28 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I71" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R71" t="s">
         <v>1</v>
       </c>
       <c r="S71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.45">
@@ -3434,25 +3405,25 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="R72" t="s">
         <v>1</v>
       </c>
       <c r="S72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.45">
@@ -3460,25 +3431,25 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="R73" t="s">
         <v>1</v>
       </c>
       <c r="S73" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.45">
@@ -3486,25 +3457,25 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R74" t="s">
         <v>1</v>
       </c>
       <c r="S74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.45">
@@ -3512,25 +3483,25 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="R75" t="s">
         <v>1</v>
       </c>
       <c r="S75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
@@ -3538,25 +3509,25 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I76" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="R76" t="s">
         <v>1</v>
       </c>
       <c r="S76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.45">
@@ -3564,25 +3535,25 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I77" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="R77" t="s">
         <v>1</v>
       </c>
       <c r="S77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.45">
@@ -3590,25 +3561,25 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="R78" t="s">
         <v>1</v>
       </c>
       <c r="S78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.45">
@@ -3616,25 +3587,25 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="R79" t="s">
         <v>1</v>
       </c>
       <c r="S79" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.45">
@@ -3642,25 +3613,25 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I80" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="R80" t="s">
         <v>1</v>
       </c>
       <c r="S80" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.45">
@@ -3668,25 +3639,25 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I81" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="R81" t="s">
         <v>1</v>
       </c>
       <c r="S81" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.45">
@@ -3694,25 +3665,25 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="R82" t="s">
         <v>1</v>
       </c>
       <c r="S82" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.45">
@@ -3720,25 +3691,25 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R83" t="s">
         <v>1</v>
       </c>
       <c r="S83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.45">
@@ -3746,25 +3717,25 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="R84" t="s">
         <v>1</v>
       </c>
       <c r="S84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.45">
@@ -3772,25 +3743,25 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="R85" t="s">
         <v>1</v>
       </c>
       <c r="S85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.45">
@@ -3798,16 +3769,16 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="R86" t="s">
         <v>1</v>
       </c>
       <c r="S86" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.45">
@@ -3815,16 +3786,16 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="R87" t="s">
         <v>1</v>
       </c>
       <c r="S87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.45">
@@ -3832,16 +3803,16 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="R88" t="s">
         <v>1</v>
       </c>
       <c r="S88" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.45">
@@ -3849,16 +3820,16 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="R89" t="s">
         <v>1</v>
       </c>
       <c r="S89" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.45">
@@ -3866,16 +3837,16 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="R90" t="s">
         <v>1</v>
       </c>
       <c r="S90" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.45">
@@ -3883,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="R91" t="s">
         <v>1</v>
       </c>
       <c r="S91" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.45">
@@ -3900,16 +3871,16 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="R92" t="s">
         <v>1</v>
       </c>
       <c r="S92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.45">
@@ -3917,16 +3888,16 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="R93" t="s">
         <v>1</v>
       </c>
       <c r="S93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.45">
@@ -3934,16 +3905,16 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="R94" t="s">
         <v>1</v>
       </c>
       <c r="S94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.45">
@@ -3951,16 +3922,16 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="R95" t="s">
         <v>1</v>
       </c>
       <c r="S95" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3993,25 +3964,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -4019,22 +3990,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -4042,22 +4013,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -4065,22 +4036,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -4088,22 +4059,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -4111,22 +4082,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -4134,22 +4105,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -4157,22 +4128,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -4180,22 +4151,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -4203,22 +4174,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -4226,22 +4197,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4226,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4277,31 +4248,31 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4309,16 +4280,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -4326,16 +4297,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -4343,16 +4314,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -4360,150 +4331,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFFE25-D125-488B-8083-70CABD18D22A}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD7F7FA-7DDC-48B9-841F-1C4930ECC1E4}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/docs/resources/TargetDictionary_testCDM.xlsx
+++ b/docs/resources/TargetDictionary_testCDM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8FD3A7-4AF7-4F62-82D2-4F2415B01AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACEE304-DD8C-4B29-8E7C-E34FDE4DBBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="323">
   <si>
     <t>name</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>weight_who_ga</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1378,7 +1381,7 @@
     <col min="7" max="7" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1400,8 +1403,14 @@
       <c r="G1" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1413,6 +1422,9 @@
       </c>
       <c r="F2" t="s">
         <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3941,11 +3953,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3959,7 +3969,7 @@
     <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3984,8 +3994,14 @@
       <c r="H1" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4008,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4031,7 +4047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4054,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4100,7 +4116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4123,7 +4139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4146,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4169,7 +4185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>

--- a/docs/resources/TargetDictionary_testCDM.xlsx
+++ b/docs/resources/TargetDictionary_testCDM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACEE304-DD8C-4B29-8E7C-E34FDE4DBBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53C225-415B-4266-8584-5F2D52D9E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="323">
   <si>
     <t>name</t>
   </si>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1435,9 +1435,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1447,18 +1449,20 @@
     <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="230.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="230.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1477,47 +1481,53 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1533,17 +1543,23 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1559,17 +1575,23 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1585,17 +1607,23 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1611,17 +1639,23 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="R5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1637,17 +1671,23 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="R6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1663,17 +1703,23 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1689,17 +1735,23 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="R8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1715,17 +1767,23 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="R9" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1741,17 +1799,23 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1767,17 +1831,23 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1793,17 +1863,23 @@
       <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
         <v>45</v>
       </c>
-      <c r="R12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1819,17 +1895,23 @@
       <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
         <v>48</v>
       </c>
-      <c r="R13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1845,17 +1927,23 @@
       <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
         <v>51</v>
       </c>
-      <c r="R14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1874,17 +1962,23 @@
       <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="I15" t="s">
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
         <v>56</v>
       </c>
-      <c r="R15" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1900,17 +1994,23 @@
       <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" t="s">
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
         <v>59</v>
       </c>
-      <c r="R16" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1926,17 +2026,23 @@
       <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" t="s">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
         <v>62</v>
       </c>
-      <c r="R17" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1952,17 +2058,23 @@
       <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
         <v>65</v>
       </c>
-      <c r="R18" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1978,17 +2090,23 @@
       <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" t="s">
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
         <v>68</v>
       </c>
-      <c r="R19" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2007,17 +2125,23 @@
       <c r="F20" t="s">
         <v>71</v>
       </c>
-      <c r="I20" t="s">
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
         <v>72</v>
       </c>
-      <c r="R20" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2033,17 +2157,23 @@
       <c r="E21" t="s">
         <v>16</v>
       </c>
-      <c r="I21" t="s">
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
         <v>75</v>
       </c>
-      <c r="R21" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2062,17 +2192,23 @@
       <c r="F22" t="s">
         <v>71</v>
       </c>
-      <c r="I22" t="s">
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
         <v>78</v>
       </c>
-      <c r="R22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2091,17 +2227,23 @@
       <c r="F23" t="s">
         <v>81</v>
       </c>
-      <c r="I23" t="s">
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
         <v>82</v>
       </c>
-      <c r="R23" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2120,17 +2262,23 @@
       <c r="F24" t="s">
         <v>81</v>
       </c>
-      <c r="I24" t="s">
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
         <v>85</v>
       </c>
-      <c r="R24" t="s">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2149,17 +2297,23 @@
       <c r="F25" t="s">
         <v>81</v>
       </c>
-      <c r="I25" t="s">
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
         <v>88</v>
       </c>
-      <c r="R25" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2178,17 +2332,23 @@
       <c r="F26" t="s">
         <v>71</v>
       </c>
-      <c r="I26" t="s">
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
         <v>91</v>
       </c>
-      <c r="R26" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2207,17 +2367,23 @@
       <c r="F27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s">
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
         <v>95</v>
       </c>
-      <c r="R27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2236,17 +2402,23 @@
       <c r="F28" t="s">
         <v>94</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
         <v>98</v>
       </c>
-      <c r="R28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2265,17 +2437,23 @@
       <c r="F29" t="s">
         <v>94</v>
       </c>
-      <c r="I29" t="s">
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
         <v>101</v>
       </c>
-      <c r="R29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2294,17 +2472,23 @@
       <c r="F30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" t="s">
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
         <v>104</v>
       </c>
-      <c r="R30" t="s">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2323,17 +2507,23 @@
       <c r="F31" t="s">
         <v>107</v>
       </c>
-      <c r="I31" t="s">
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
         <v>108</v>
       </c>
-      <c r="R31" t="s">
-        <v>1</v>
-      </c>
-      <c r="S31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2352,17 +2542,23 @@
       <c r="F32" t="s">
         <v>111</v>
       </c>
-      <c r="I32" t="s">
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
         <v>112</v>
       </c>
-      <c r="R32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T32" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2381,17 +2577,23 @@
       <c r="F33" t="s">
         <v>115</v>
       </c>
-      <c r="I33" t="s">
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
         <v>116</v>
       </c>
-      <c r="R33" t="s">
-        <v>1</v>
-      </c>
-      <c r="S33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2410,17 +2612,23 @@
       <c r="F34" t="s">
         <v>119</v>
       </c>
-      <c r="I34" t="s">
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
         <v>120</v>
       </c>
-      <c r="R34" t="s">
-        <v>1</v>
-      </c>
-      <c r="S34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2439,17 +2647,23 @@
       <c r="F35" t="s">
         <v>115</v>
       </c>
-      <c r="I35" t="s">
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
         <v>123</v>
       </c>
-      <c r="R35" t="s">
-        <v>1</v>
-      </c>
-      <c r="S35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2468,17 +2682,23 @@
       <c r="F36" t="s">
         <v>119</v>
       </c>
-      <c r="I36" t="s">
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
         <v>126</v>
       </c>
-      <c r="R36" t="s">
-        <v>1</v>
-      </c>
-      <c r="S36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2497,17 +2717,23 @@
       <c r="F37" t="s">
         <v>55</v>
       </c>
-      <c r="I37" t="s">
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
         <v>129</v>
       </c>
-      <c r="R37" t="s">
-        <v>1</v>
-      </c>
-      <c r="S37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2526,17 +2752,23 @@
       <c r="F38" t="s">
         <v>55</v>
       </c>
-      <c r="I38" t="s">
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
         <v>132</v>
       </c>
-      <c r="R38" t="s">
-        <v>1</v>
-      </c>
-      <c r="S38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2555,17 +2787,23 @@
       <c r="F39" t="s">
         <v>55</v>
       </c>
-      <c r="I39" t="s">
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" t="s">
         <v>135</v>
       </c>
-      <c r="R39" t="s">
-        <v>1</v>
-      </c>
-      <c r="S39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -2581,17 +2819,23 @@
       <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="I40" t="s">
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
         <v>138</v>
       </c>
-      <c r="R40" t="s">
-        <v>1</v>
-      </c>
-      <c r="S40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2607,17 +2851,23 @@
       <c r="E41" t="s">
         <v>16</v>
       </c>
-      <c r="I41" t="s">
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
         <v>141</v>
       </c>
-      <c r="R41" t="s">
-        <v>1</v>
-      </c>
-      <c r="S41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2633,17 +2883,23 @@
       <c r="E42" t="s">
         <v>16</v>
       </c>
-      <c r="I42" t="s">
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
         <v>144</v>
       </c>
-      <c r="R42" t="s">
-        <v>1</v>
-      </c>
-      <c r="S42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T42" t="s">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2662,17 +2918,23 @@
       <c r="F43" t="s">
         <v>55</v>
       </c>
-      <c r="I43" t="s">
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
         <v>147</v>
       </c>
-      <c r="R43" t="s">
-        <v>1</v>
-      </c>
-      <c r="S43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T43" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2688,17 +2950,23 @@
       <c r="E44" t="s">
         <v>16</v>
       </c>
-      <c r="I44" t="s">
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
         <v>150</v>
       </c>
-      <c r="R44" t="s">
-        <v>1</v>
-      </c>
-      <c r="S44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2714,17 +2982,23 @@
       <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="I45" t="s">
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
         <v>153</v>
       </c>
-      <c r="R45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T45" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2740,17 +3014,23 @@
       <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="I46" t="s">
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
         <v>156</v>
       </c>
-      <c r="R46" t="s">
-        <v>1</v>
-      </c>
-      <c r="S46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T46" t="s">
+        <v>1</v>
+      </c>
+      <c r="U46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2766,17 +3046,23 @@
       <c r="E47" t="s">
         <v>16</v>
       </c>
-      <c r="I47" t="s">
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" t="s">
         <v>159</v>
       </c>
-      <c r="R47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T47" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2792,17 +3078,23 @@
       <c r="E48" t="s">
         <v>16</v>
       </c>
-      <c r="I48" t="s">
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
         <v>162</v>
       </c>
-      <c r="R48" t="s">
-        <v>1</v>
-      </c>
-      <c r="S48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T48" t="s">
+        <v>1</v>
+      </c>
+      <c r="U48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2818,17 +3110,23 @@
       <c r="E49" t="s">
         <v>16</v>
       </c>
-      <c r="I49" t="s">
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" t="s">
         <v>165</v>
       </c>
-      <c r="R49" t="s">
-        <v>1</v>
-      </c>
-      <c r="S49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -2844,17 +3142,23 @@
       <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="I50" t="s">
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" t="s">
         <v>168</v>
       </c>
-      <c r="R50" t="s">
-        <v>1</v>
-      </c>
-      <c r="S50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T50" t="s">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2873,17 +3177,23 @@
       <c r="F51" t="s">
         <v>171</v>
       </c>
-      <c r="I51" t="s">
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
         <v>172</v>
       </c>
-      <c r="R51" t="s">
-        <v>1</v>
-      </c>
-      <c r="S51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T51" t="s">
+        <v>1</v>
+      </c>
+      <c r="U51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2899,17 +3209,23 @@
       <c r="E52" t="s">
         <v>16</v>
       </c>
-      <c r="I52" t="s">
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
         <v>175</v>
       </c>
-      <c r="R52" t="s">
-        <v>1</v>
-      </c>
-      <c r="S52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T52" t="s">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2925,17 +3241,23 @@
       <c r="E53" t="s">
         <v>16</v>
       </c>
-      <c r="I53" t="s">
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" t="s">
         <v>178</v>
       </c>
-      <c r="R53" t="s">
-        <v>1</v>
-      </c>
-      <c r="S53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T53" t="s">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2951,17 +3273,23 @@
       <c r="E54" t="s">
         <v>16</v>
       </c>
-      <c r="I54" t="s">
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" t="s">
         <v>181</v>
       </c>
-      <c r="R54" t="s">
-        <v>1</v>
-      </c>
-      <c r="S54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T54" t="s">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2977,17 +3305,23 @@
       <c r="E55" t="s">
         <v>16</v>
       </c>
-      <c r="I55" t="s">
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
         <v>184</v>
       </c>
-      <c r="R55" t="s">
-        <v>1</v>
-      </c>
-      <c r="S55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -3003,17 +3337,23 @@
       <c r="E56" t="s">
         <v>16</v>
       </c>
-      <c r="I56" t="s">
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" t="s">
         <v>187</v>
       </c>
-      <c r="R56" t="s">
-        <v>1</v>
-      </c>
-      <c r="S56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -3029,17 +3369,23 @@
       <c r="E57" t="s">
         <v>16</v>
       </c>
-      <c r="I57" t="s">
+      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
         <v>190</v>
       </c>
-      <c r="R57" t="s">
-        <v>1</v>
-      </c>
-      <c r="S57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T57" t="s">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -3055,17 +3401,23 @@
       <c r="E58" t="s">
         <v>16</v>
       </c>
-      <c r="I58" t="s">
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" t="s">
         <v>193</v>
       </c>
-      <c r="R58" t="s">
-        <v>1</v>
-      </c>
-      <c r="S58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T58" t="s">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -3081,17 +3433,23 @@
       <c r="E59" t="s">
         <v>16</v>
       </c>
-      <c r="I59" t="s">
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" t="s">
         <v>196</v>
       </c>
-      <c r="R59" t="s">
-        <v>1</v>
-      </c>
-      <c r="S59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T59" t="s">
+        <v>1</v>
+      </c>
+      <c r="U59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -3107,17 +3465,23 @@
       <c r="E60" t="s">
         <v>16</v>
       </c>
-      <c r="I60" t="s">
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
         <v>199</v>
       </c>
-      <c r="R60" t="s">
-        <v>1</v>
-      </c>
-      <c r="S60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T60" t="s">
+        <v>1</v>
+      </c>
+      <c r="U60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -3133,17 +3497,23 @@
       <c r="E61" t="s">
         <v>16</v>
       </c>
-      <c r="I61" t="s">
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" t="s">
         <v>202</v>
       </c>
-      <c r="R61" t="s">
-        <v>1</v>
-      </c>
-      <c r="S61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T61" t="s">
+        <v>1</v>
+      </c>
+      <c r="U61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -3162,17 +3532,23 @@
       <c r="F62" t="s">
         <v>171</v>
       </c>
-      <c r="I62" t="s">
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
         <v>205</v>
       </c>
-      <c r="R62" t="s">
-        <v>1</v>
-      </c>
-      <c r="S62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T62" t="s">
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -3188,17 +3564,23 @@
       <c r="E63" t="s">
         <v>44</v>
       </c>
-      <c r="I63" t="s">
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
         <v>208</v>
       </c>
-      <c r="R63" t="s">
-        <v>1</v>
-      </c>
-      <c r="S63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T63" t="s">
+        <v>1</v>
+      </c>
+      <c r="U63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -3217,17 +3599,23 @@
       <c r="F64" t="s">
         <v>171</v>
       </c>
-      <c r="I64" t="s">
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
         <v>211</v>
       </c>
-      <c r="R64" t="s">
-        <v>1</v>
-      </c>
-      <c r="S64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T64" t="s">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -3243,17 +3631,23 @@
       <c r="E65" t="s">
         <v>44</v>
       </c>
-      <c r="I65" t="s">
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" t="s">
         <v>214</v>
       </c>
-      <c r="R65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T65" t="s">
+        <v>1</v>
+      </c>
+      <c r="U65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3269,17 +3663,23 @@
       <c r="E66" t="s">
         <v>44</v>
       </c>
-      <c r="I66" t="s">
+      <c r="G66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" t="s">
         <v>217</v>
       </c>
-      <c r="R66" t="s">
-        <v>1</v>
-      </c>
-      <c r="S66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T66" t="s">
+        <v>1</v>
+      </c>
+      <c r="U66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -3295,17 +3695,23 @@
       <c r="E67" t="s">
         <v>44</v>
       </c>
-      <c r="I67" t="s">
+      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" t="s">
         <v>220</v>
       </c>
-      <c r="R67" t="s">
-        <v>1</v>
-      </c>
-      <c r="S67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T67" t="s">
+        <v>1</v>
+      </c>
+      <c r="U67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3321,17 +3727,23 @@
       <c r="E68" t="s">
         <v>44</v>
       </c>
-      <c r="I68" t="s">
+      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" t="s">
         <v>223</v>
       </c>
-      <c r="R68" t="s">
-        <v>1</v>
-      </c>
-      <c r="S68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T68" t="s">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -3347,17 +3759,23 @@
       <c r="E69" t="s">
         <v>44</v>
       </c>
-      <c r="I69" t="s">
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" t="s">
         <v>226</v>
       </c>
-      <c r="R69" t="s">
-        <v>1</v>
-      </c>
-      <c r="S69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T69" t="s">
+        <v>1</v>
+      </c>
+      <c r="U69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -3373,17 +3791,23 @@
       <c r="E70" t="s">
         <v>44</v>
       </c>
-      <c r="I70" t="s">
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" t="s">
         <v>229</v>
       </c>
-      <c r="R70" t="s">
-        <v>1</v>
-      </c>
-      <c r="S70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T70" t="s">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3402,17 +3826,23 @@
       <c r="F71" t="s">
         <v>171</v>
       </c>
-      <c r="I71" t="s">
+      <c r="G71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" t="s">
         <v>232</v>
       </c>
-      <c r="R71" t="s">
-        <v>1</v>
-      </c>
-      <c r="S71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T71" t="s">
+        <v>1</v>
+      </c>
+      <c r="U71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -3428,17 +3858,23 @@
       <c r="E72" t="s">
         <v>16</v>
       </c>
-      <c r="I72" t="s">
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" t="s">
         <v>235</v>
       </c>
-      <c r="R72" t="s">
-        <v>1</v>
-      </c>
-      <c r="S72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T72" t="s">
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -3454,17 +3890,23 @@
       <c r="E73" t="s">
         <v>16</v>
       </c>
-      <c r="I73" t="s">
+      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" t="s">
         <v>238</v>
       </c>
-      <c r="R73" t="s">
-        <v>1</v>
-      </c>
-      <c r="S73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T73" t="s">
+        <v>1</v>
+      </c>
+      <c r="U73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -3480,17 +3922,23 @@
       <c r="E74" t="s">
         <v>16</v>
       </c>
-      <c r="I74" t="s">
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" t="s">
         <v>241</v>
       </c>
-      <c r="R74" t="s">
-        <v>1</v>
-      </c>
-      <c r="S74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T74" t="s">
+        <v>1</v>
+      </c>
+      <c r="U74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3506,17 +3954,23 @@
       <c r="E75" t="s">
         <v>16</v>
       </c>
-      <c r="I75" t="s">
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
         <v>244</v>
       </c>
-      <c r="R75" t="s">
-        <v>1</v>
-      </c>
-      <c r="S75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T75" t="s">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -3532,17 +3986,23 @@
       <c r="E76" t="s">
         <v>16</v>
       </c>
-      <c r="I76" t="s">
+      <c r="G76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
         <v>247</v>
       </c>
-      <c r="R76" t="s">
-        <v>1</v>
-      </c>
-      <c r="S76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T76" t="s">
+        <v>1</v>
+      </c>
+      <c r="U76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3558,17 +4018,23 @@
       <c r="E77" t="s">
         <v>16</v>
       </c>
-      <c r="I77" t="s">
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" t="s">
         <v>250</v>
       </c>
-      <c r="R77" t="s">
-        <v>1</v>
-      </c>
-      <c r="S77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T77" t="s">
+        <v>1</v>
+      </c>
+      <c r="U77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -3584,17 +4050,23 @@
       <c r="E78" t="s">
         <v>16</v>
       </c>
-      <c r="I78" t="s">
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" t="s">
         <v>253</v>
       </c>
-      <c r="R78" t="s">
-        <v>1</v>
-      </c>
-      <c r="S78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T78" t="s">
+        <v>1</v>
+      </c>
+      <c r="U78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3610,17 +4082,23 @@
       <c r="E79" t="s">
         <v>16</v>
       </c>
-      <c r="I79" t="s">
+      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" t="s">
         <v>256</v>
       </c>
-      <c r="R79" t="s">
-        <v>1</v>
-      </c>
-      <c r="S79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -3636,17 +4114,23 @@
       <c r="E80" t="s">
         <v>16</v>
       </c>
-      <c r="I80" t="s">
+      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" t="s">
         <v>259</v>
       </c>
-      <c r="R80" t="s">
-        <v>1</v>
-      </c>
-      <c r="S80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T80" t="s">
+        <v>1</v>
+      </c>
+      <c r="U80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -3662,17 +4146,23 @@
       <c r="E81" t="s">
         <v>16</v>
       </c>
-      <c r="I81" t="s">
+      <c r="G81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" t="s">
         <v>262</v>
       </c>
-      <c r="R81" t="s">
-        <v>1</v>
-      </c>
-      <c r="S81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T81" t="s">
+        <v>1</v>
+      </c>
+      <c r="U81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -3688,17 +4178,23 @@
       <c r="E82" t="s">
         <v>16</v>
       </c>
-      <c r="I82" t="s">
+      <c r="G82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" t="s">
         <v>265</v>
       </c>
-      <c r="R82" t="s">
-        <v>1</v>
-      </c>
-      <c r="S82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T82" t="s">
+        <v>1</v>
+      </c>
+      <c r="U82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -3714,17 +4210,23 @@
       <c r="E83" t="s">
         <v>16</v>
       </c>
-      <c r="I83" t="s">
+      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" t="s">
         <v>268</v>
       </c>
-      <c r="R83" t="s">
-        <v>1</v>
-      </c>
-      <c r="S83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T83" t="s">
+        <v>1</v>
+      </c>
+      <c r="U83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -3740,17 +4242,23 @@
       <c r="E84" t="s">
         <v>16</v>
       </c>
-      <c r="I84" t="s">
+      <c r="G84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84" t="s">
         <v>271</v>
       </c>
-      <c r="R84" t="s">
-        <v>1</v>
-      </c>
-      <c r="S84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T84" t="s">
+        <v>1</v>
+      </c>
+      <c r="U84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -3766,17 +4274,23 @@
       <c r="E85" t="s">
         <v>16</v>
       </c>
-      <c r="I85" t="s">
+      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" t="s">
         <v>274</v>
       </c>
-      <c r="R85" t="s">
-        <v>1</v>
-      </c>
-      <c r="S85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T85" t="s">
+        <v>1</v>
+      </c>
+      <c r="U85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -3786,14 +4300,20 @@
       <c r="C86" t="s">
         <v>302</v>
       </c>
-      <c r="R86" t="s">
-        <v>1</v>
-      </c>
-      <c r="S86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -3803,14 +4323,20 @@
       <c r="C87" t="s">
         <v>303</v>
       </c>
-      <c r="R87" t="s">
-        <v>1</v>
-      </c>
-      <c r="S87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s">
+        <v>1</v>
+      </c>
+      <c r="U87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3820,14 +4346,20 @@
       <c r="C88" t="s">
         <v>304</v>
       </c>
-      <c r="R88" t="s">
-        <v>1</v>
-      </c>
-      <c r="S88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1</v>
+      </c>
+      <c r="U88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -3837,14 +4369,20 @@
       <c r="C89" t="s">
         <v>305</v>
       </c>
-      <c r="R89" t="s">
-        <v>1</v>
-      </c>
-      <c r="S89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s">
+        <v>1</v>
+      </c>
+      <c r="U89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3854,14 +4392,20 @@
       <c r="C90" t="s">
         <v>306</v>
       </c>
-      <c r="R90" t="s">
-        <v>1</v>
-      </c>
-      <c r="S90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s">
+        <v>1</v>
+      </c>
+      <c r="U90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -3871,14 +4415,20 @@
       <c r="C91" t="s">
         <v>307</v>
       </c>
-      <c r="R91" t="s">
-        <v>1</v>
-      </c>
-      <c r="S91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G91" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s">
+        <v>1</v>
+      </c>
+      <c r="U91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -3888,14 +4438,20 @@
       <c r="C92" t="s">
         <v>308</v>
       </c>
-      <c r="R92" t="s">
-        <v>1</v>
-      </c>
-      <c r="S92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s">
+        <v>1</v>
+      </c>
+      <c r="U92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -3905,14 +4461,20 @@
       <c r="C93" t="s">
         <v>314</v>
       </c>
-      <c r="R93" t="s">
-        <v>1</v>
-      </c>
-      <c r="S93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G93" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s">
+        <v>1</v>
+      </c>
+      <c r="U93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3922,14 +4484,20 @@
       <c r="C94" t="s">
         <v>320</v>
       </c>
-      <c r="R94" t="s">
-        <v>1</v>
-      </c>
-      <c r="S94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s">
+        <v>1</v>
+      </c>
+      <c r="U94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -3939,14 +4507,21 @@
       <c r="C95" t="s">
         <v>321</v>
       </c>
-      <c r="R95" t="s">
-        <v>1</v>
-      </c>
-      <c r="S95" t="s">
+      <c r="G95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s">
+        <v>1</v>
+      </c>
+      <c r="U95" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3955,7 +4530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/docs/resources/TargetDictionary_testCDM.xlsx
+++ b/docs/resources/TargetDictionary_testCDM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185463F3-78F2-49EB-A0D9-34E87D1167CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA10ED1-842A-405A-A44B-4F3BF0ED3011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="309">
   <si>
     <t>label</t>
   </si>
@@ -897,15 +897,6 @@
     <t>Drug use, S) Sensory organs drug use. Provide repeated measures in long format with corresponding age in years, method for each measure and time range to which this refers to (drugs_range).</t>
   </si>
   <si>
-    <t>variable.resource</t>
-  </si>
-  <si>
-    <t>variable.dataset</t>
-  </si>
-  <si>
-    <t>variable.name</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -930,9 +921,6 @@
     <t>EDEN</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
     <t>Weight of child at indicated time period</t>
   </si>
   <si>
@@ -945,9 +933,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
     <t>Child's height</t>
   </si>
   <si>
@@ -958,6 +943,12 @@
   </si>
   <si>
     <t>Age at adiposity rebound</t>
+  </si>
+  <si>
+    <t>weight_</t>
+  </si>
+  <si>
+    <t>height_</t>
   </si>
 </sst>
 </file>
@@ -1331,9 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1407,7 +1396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1498,25 +1489,25 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1533,25 +1524,25 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2375,7 +2366,7 @@
         <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E37" t="s">
         <v>139</v>
@@ -3576,7 +3567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3594,13 +3587,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -3635,10 +3628,10 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -3655,10 +3648,10 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -3675,10 +3668,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -3695,10 +3688,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
